--- a/examples/modeling_statistics.xlsx
+++ b/examples/modeling_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\semester_7\3_IP6\IP6_ModellingBuildingEnvelopes\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3B4EB5-440E-4EC3-AF73-94B99D79803E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A72787-48C1-48A3-B5C2-155ADDA61CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{C4D8E387-390C-41EA-8D87-94AA29F1FC5F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="6" xr2:uid="{C4D8E387-390C-41EA-8D87-94AA29F1FC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Envelop_Demo" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="P19101891001" sheetId="4" r:id="rId4"/>
     <sheet name="P19102081001" sheetId="5" r:id="rId5"/>
     <sheet name="KK-18007" sheetId="6" r:id="rId6"/>
+    <sheet name="GR-18003" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
   <si>
     <t>insert side views</t>
   </si>
@@ -197,6 +198,27 @@
   </si>
   <si>
     <t>RubyTool: 38, 535.169028sec</t>
+  </si>
+  <si>
+    <t>Tool switches: 545</t>
+  </si>
+  <si>
+    <t>CameraOrbitTool: 229, 162.8726530000001sec</t>
+  </si>
+  <si>
+    <t>SelectionTool: 97, 229.78771400000005sec</t>
+  </si>
+  <si>
+    <t>RubyTool: 219, 672.2943979999999sec</t>
+  </si>
+  <si>
+    <t>Tool switches without CameraOrbitTool: 88</t>
+  </si>
+  <si>
+    <t>SelectionTool: 30, 265.205823sec</t>
+  </si>
+  <si>
+    <t>RubyTool: 58, 793.4318420000002sec</t>
   </si>
 </sst>
 </file>
@@ -552,6 +574,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>130777</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85808C0B-8DF2-4A60-9499-AED9BCA7A62F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028951" y="80963"/>
+          <a:ext cx="1635726" cy="3628238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1866,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E89258-C483-4F56-8907-05A98F147960}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2065,4 +2136,209 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AC3CD4-7DC6-4E55-8972-96AD84CFBAED}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="10" max="10" width="25.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <f>K3-K2</f>
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L8" si="0">K4-K3</f>
+        <v>0.21458333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25416666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20624999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4166666666666696E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="1">
+        <f>K9-K2</f>
+        <v>0.7597222222222223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L2:L9">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F74EF515-44B1-4723-A9E2-9427ABF06270}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F74EF515-44B1-4723-A9E2-9427ABF06270}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L2:L9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>